--- a/Report Spreadsheet.xlsx
+++ b/Report Spreadsheet.xlsx
@@ -29,7 +29,7 @@
     <author>Marcus L</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -304,16 +304,188 @@
   </si>
   <si>
     <t>User Manual illustrating each main component of the solution with screenshots!</t>
+  </si>
+  <si>
+    <t>Job Seeker Pages</t>
+  </si>
+  <si>
+    <t>Miscillaneous/ Configuration Requirements</t>
+  </si>
+  <si>
+    <t>The intent is for you to provide a code project from Eclipse/Aptana with your database</t>
+  </si>
+  <si>
+    <t>"You are encouraged to expand the description with additional functionality and capabilities…"</t>
+  </si>
+  <si>
+    <t>Additional Features:</t>
+  </si>
+  <si>
+    <t>QUESTIONS:</t>
+  </si>
+  <si>
+    <t>http://www.engr.uconn.edu/~steve/Cse4701/cse4701projectoverview.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"EERand UML use-case diagrams" What? In project overview file.  --&gt; </t>
+  </si>
+  <si>
+    <t>Search: search based on criteria</t>
+  </si>
+  <si>
+    <t>Manage Applications: view seeker's submitted applications, allow for cancellation of application</t>
+  </si>
+  <si>
+    <t>TODO: fill in the rest</t>
+  </si>
+  <si>
+    <t>Update Resume: Allow seeker to update resume**</t>
+  </si>
+  <si>
+    <t>Note that we have expanded this to allow multiple resumes to be uploaded and modified by the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply to selected: add the selected jobs to the list of jobs which seeker has applied for. </t>
+  </si>
+  <si>
+    <t>We have extended this to include sending the resume of the seeker's choosing along with the application</t>
+  </si>
+  <si>
+    <t>Comments/ additions</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Select all/clear all</t>
+  </si>
+  <si>
+    <t>It might not be a good idea to have seekers blindly apply to all job positions?</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>we called this log out, it is at the top of every page by your user name</t>
+  </si>
+  <si>
+    <t>Design Considerations</t>
+  </si>
+  <si>
+    <t>We have opted not to include a city/state table as this would cause much more traffic for the database. Since these lists are unchanging it is cheaper for the system computationally to have them hard coded.</t>
+  </si>
+  <si>
+    <t>For the project, at a minimum, you should expand this to include: multiple job titles (drop down or selection), salary range (minimum to maximum), and multiple locations (drop down or selection for all locations of that company).  Do not search across multiple companies</t>
+  </si>
+  <si>
+    <t>what? The line before he says . If the job seeker does not enter any data in any of the fields, and click on the “Submit” button, the system will bring back the entire list of unfilled jobs.</t>
+  </si>
+  <si>
+    <t>Education: School, Degree, and Degree Area set via drop down</t>
+  </si>
+  <si>
+    <t>We are opting not to have school populated via drop down, but the degree and area are.</t>
+  </si>
+  <si>
+    <t>Education: allow multiple entries</t>
+  </si>
+  <si>
+    <t>Date menus to make dates easier to input and consistent</t>
+  </si>
+  <si>
+    <t>allow multiple resumes</t>
+  </si>
+  <si>
+    <t>apply to job with selected resume</t>
+  </si>
+  <si>
+    <t>Work Experience: end date null implies current employment</t>
+  </si>
+  <si>
+    <t>Work Experinece: job seeker can insert and delete entries</t>
+  </si>
+  <si>
+    <t>Work Experinece: The Job Title field is usedto determine if a job seeker satisfies the experience requirements for the job</t>
+  </si>
+  <si>
+    <t>Skills: be able to select new skills</t>
+  </si>
+  <si>
+    <t>Skills: Load previously listed skills from database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that with multiple resumes we have attached a relevant skillset to each resume </t>
+  </si>
+  <si>
+    <t>Update Profile: Allow the job seeker to update all the information besides their unsername</t>
+  </si>
+  <si>
+    <t>We have added the security feature that the seeker must confirm their password before altering their profile information</t>
+  </si>
+  <si>
+    <t>View Job Detail: Company name, phone, fax, website, job title, location, date entered, duties, degree types, degree areas, skills, low salary range, high salary range, number of applicants, fill status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not Fully Complete</t>
+  </si>
+  <si>
+    <t>Not Implemented</t>
+  </si>
+  <si>
+    <t>not sure if we should implement?</t>
+  </si>
+  <si>
+    <t>Do we need more search criteria?</t>
+  </si>
+  <si>
+    <t>Implemented for job search but not for main page</t>
+  </si>
+  <si>
+    <t>All set</t>
+  </si>
+  <si>
+    <t>Work Experience: displayed in descending order by start date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,12 +526,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,21 +558,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,115 +882,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="1" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report Spreadsheet.xlsx
+++ b/Report Spreadsheet.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Administrator Reports</t>
   </si>
@@ -339,9 +339,6 @@
     <t>TODO: fill in the rest</t>
   </si>
   <si>
-    <t>Update Resume: Allow seeker to update resume**</t>
-  </si>
-  <si>
     <t>Note that we have expanded this to allow multiple resumes to be uploaded and modified by the user</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>Not Implemented</t>
   </si>
   <si>
-    <t>not sure if we should implement?</t>
-  </si>
-  <si>
     <t>Do we need more search criteria?</t>
   </si>
   <si>
@@ -448,6 +442,18 @@
   </si>
   <si>
     <t>Work Experience: displayed in descending order by start date</t>
+  </si>
+  <si>
+    <t>Update Resume: Allow seeker to update resume</t>
+  </si>
+  <si>
+    <t>idk how this is useful</t>
+  </si>
+  <si>
+    <t>not complete</t>
+  </si>
+  <si>
+    <t>Should we fix this?</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -590,6 +596,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -885,7 +893,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,13 +905,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -916,133 +924,147 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
+      <c r="B3" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>52</v>
+      <c r="B4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,74 +1184,104 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>10</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1255,16 +1307,25 @@
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B70" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B71" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B72" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
@@ -1273,21 +1334,33 @@
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B73" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B74" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B75" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B76" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
@@ -1303,64 +1376,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,10 +1457,10 @@
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,12 +1483,12 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
